--- a/xlsx/汉语_intext.xlsx
+++ b/xlsx/汉语_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1421">
   <si>
     <t>汉语</t>
   </si>
@@ -29,7 +29,7 @@
     <t>漢語書面語</t>
   </si>
   <si>
-    <t>政策_政策_美國_汉语</t>
+    <t>体育运动_体育运动_文化_汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%AD%97</t>
@@ -4044,42 +4044,6 @@
   </si>
   <si>
     <t>马来-波利尼西亚语族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>達悟語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
-  </si>
-  <si>
-    <t>台灣南島語言</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>泰雅語群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>排灣語群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%84%92%E8%AA%9E%E7%BE%A4</t>
-  </si>
-  <si>
-    <t>鄒語群</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%87%B1%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>魯凱語</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F-%E9%AB%98%E6%A3%89%E8%AF%AD%E6%97%8F</t>
@@ -4662,7 +4626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I802"/>
+  <dimension ref="A1:I796"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14083,7 +14047,7 @@
         <v>626</v>
       </c>
       <c r="G325" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -25248,7 +25212,7 @@
         <v>1272</v>
       </c>
       <c r="G710" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H710" t="s">
         <v>4</v>
@@ -26402,10 +26366,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>1343</v>
+        <v>537</v>
       </c>
       <c r="F750" t="s">
-        <v>1344</v>
+        <v>538</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26431,10 +26395,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F751" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26460,10 +26424,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="F752" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -26489,10 +26453,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1349</v>
+        <v>543</v>
       </c>
       <c r="F753" t="s">
-        <v>1350</v>
+        <v>544</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -26518,10 +26482,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F754" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -26547,10 +26511,10 @@
         <v>754</v>
       </c>
       <c r="E755" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F755" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="G755" t="n">
         <v>1</v>
@@ -26576,10 +26540,10 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>537</v>
+        <v>1351</v>
       </c>
       <c r="F756" t="s">
-        <v>538</v>
+        <v>1352</v>
       </c>
       <c r="G756" t="n">
         <v>1</v>
@@ -26605,10 +26569,10 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="F757" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G757" t="n">
         <v>1</v>
@@ -26634,10 +26598,10 @@
         <v>757</v>
       </c>
       <c r="E758" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="F758" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="G758" t="n">
         <v>1</v>
@@ -26663,10 +26627,10 @@
         <v>758</v>
       </c>
       <c r="E759" t="s">
-        <v>543</v>
+        <v>1357</v>
       </c>
       <c r="F759" t="s">
-        <v>544</v>
+        <v>1358</v>
       </c>
       <c r="G759" t="n">
         <v>1</v>
@@ -26692,13 +26656,13 @@
         <v>759</v>
       </c>
       <c r="E760" t="s">
-        <v>1359</v>
+        <v>971</v>
       </c>
       <c r="F760" t="s">
-        <v>1360</v>
+        <v>972</v>
       </c>
       <c r="G760" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -26721,10 +26685,10 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="F761" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="G761" t="n">
         <v>1</v>
@@ -26750,10 +26714,10 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="F762" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="G762" t="n">
         <v>1</v>
@@ -26779,10 +26743,10 @@
         <v>762</v>
       </c>
       <c r="E763" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F763" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="G763" t="n">
         <v>1</v>
@@ -26808,13 +26772,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="F764" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -26837,10 +26801,10 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F765" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="G765" t="n">
         <v>1</v>
@@ -26866,13 +26830,13 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>971</v>
+        <v>511</v>
       </c>
       <c r="F766" t="s">
-        <v>972</v>
+        <v>512</v>
       </c>
       <c r="G766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -26895,10 +26859,10 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="F767" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="G767" t="n">
         <v>1</v>
@@ -26924,10 +26888,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F768" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -26953,10 +26917,10 @@
         <v>768</v>
       </c>
       <c r="E769" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F769" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="G769" t="n">
         <v>1</v>
@@ -26982,13 +26946,13 @@
         <v>769</v>
       </c>
       <c r="E770" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F770" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="G770" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -27011,10 +26975,10 @@
         <v>770</v>
       </c>
       <c r="E771" t="s">
-        <v>1379</v>
+        <v>517</v>
       </c>
       <c r="F771" t="s">
-        <v>1380</v>
+        <v>518</v>
       </c>
       <c r="G771" t="n">
         <v>1</v>
@@ -27040,10 +27004,10 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F772" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="G772" t="n">
         <v>1</v>
@@ -27069,10 +27033,10 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="F773" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="G773" t="n">
         <v>1</v>
@@ -27098,10 +27062,10 @@
         <v>773</v>
       </c>
       <c r="E774" t="s">
-        <v>1383</v>
+        <v>1061</v>
       </c>
       <c r="F774" t="s">
-        <v>1384</v>
+        <v>1062</v>
       </c>
       <c r="G774" t="n">
         <v>1</v>
@@ -27127,10 +27091,10 @@
         <v>774</v>
       </c>
       <c r="E775" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="F775" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="G775" t="n">
         <v>1</v>
@@ -27156,10 +27120,10 @@
         <v>775</v>
       </c>
       <c r="E776" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="F776" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="G776" t="n">
         <v>1</v>
@@ -27185,10 +27149,10 @@
         <v>776</v>
       </c>
       <c r="E777" t="s">
-        <v>517</v>
+        <v>1383</v>
       </c>
       <c r="F777" t="s">
-        <v>518</v>
+        <v>1384</v>
       </c>
       <c r="G777" t="n">
         <v>1</v>
@@ -27214,10 +27178,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>519</v>
+        <v>1385</v>
       </c>
       <c r="F778" t="s">
-        <v>520</v>
+        <v>1386</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -27243,10 +27207,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F779" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -27272,10 +27236,10 @@
         <v>779</v>
       </c>
       <c r="E780" t="s">
-        <v>1061</v>
+        <v>1389</v>
       </c>
       <c r="F780" t="s">
-        <v>1062</v>
+        <v>1390</v>
       </c>
       <c r="G780" t="n">
         <v>1</v>
@@ -27336,7 +27300,7 @@
         <v>1394</v>
       </c>
       <c r="G782" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -27452,7 +27416,7 @@
         <v>1402</v>
       </c>
       <c r="G786" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -27510,7 +27474,7 @@
         <v>1406</v>
       </c>
       <c r="G788" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -27597,7 +27561,7 @@
         <v>1412</v>
       </c>
       <c r="G791" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -27620,13 +27584,13 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>1413</v>
+        <v>57</v>
       </c>
       <c r="F792" t="s">
-        <v>1414</v>
+        <v>58</v>
       </c>
       <c r="G792" t="n">
-        <v>4</v>
+        <v>161</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -27649,10 +27613,10 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="F793" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G793" t="n">
         <v>1</v>
@@ -27678,13 +27642,13 @@
         <v>793</v>
       </c>
       <c r="E794" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="F794" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -27707,10 +27671,10 @@
         <v>794</v>
       </c>
       <c r="E795" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F795" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="G795" t="n">
         <v>1</v>
@@ -27736,10 +27700,10 @@
         <v>795</v>
       </c>
       <c r="E796" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F796" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="G796" t="n">
         <v>1</v>
@@ -27748,180 +27712,6 @@
         <v>4</v>
       </c>
       <c r="I796" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="797" spans="1:9">
-      <c r="A797" s="1" t="n">
-        <v>795</v>
-      </c>
-      <c r="B797" t="s">
-        <v>0</v>
-      </c>
-      <c r="C797" t="s">
-        <v>1</v>
-      </c>
-      <c r="D797" t="n">
-        <v>796</v>
-      </c>
-      <c r="E797" t="s">
-        <v>1423</v>
-      </c>
-      <c r="F797" t="s">
-        <v>1424</v>
-      </c>
-      <c r="G797" t="n">
-        <v>2</v>
-      </c>
-      <c r="H797" t="s">
-        <v>4</v>
-      </c>
-      <c r="I797" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="798" spans="1:9">
-      <c r="A798" s="1" t="n">
-        <v>796</v>
-      </c>
-      <c r="B798" t="s">
-        <v>0</v>
-      </c>
-      <c r="C798" t="s">
-        <v>1</v>
-      </c>
-      <c r="D798" t="n">
-        <v>797</v>
-      </c>
-      <c r="E798" t="s">
-        <v>57</v>
-      </c>
-      <c r="F798" t="s">
-        <v>58</v>
-      </c>
-      <c r="G798" t="n">
-        <v>161</v>
-      </c>
-      <c r="H798" t="s">
-        <v>4</v>
-      </c>
-      <c r="I798" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="799" spans="1:9">
-      <c r="A799" s="1" t="n">
-        <v>797</v>
-      </c>
-      <c r="B799" t="s">
-        <v>0</v>
-      </c>
-      <c r="C799" t="s">
-        <v>1</v>
-      </c>
-      <c r="D799" t="n">
-        <v>798</v>
-      </c>
-      <c r="E799" t="s">
-        <v>1425</v>
-      </c>
-      <c r="F799" t="s">
-        <v>1426</v>
-      </c>
-      <c r="G799" t="n">
-        <v>1</v>
-      </c>
-      <c r="H799" t="s">
-        <v>4</v>
-      </c>
-      <c r="I799" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="800" spans="1:9">
-      <c r="A800" s="1" t="n">
-        <v>798</v>
-      </c>
-      <c r="B800" t="s">
-        <v>0</v>
-      </c>
-      <c r="C800" t="s">
-        <v>1</v>
-      </c>
-      <c r="D800" t="n">
-        <v>799</v>
-      </c>
-      <c r="E800" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F800" t="s">
-        <v>1428</v>
-      </c>
-      <c r="G800" t="n">
-        <v>3</v>
-      </c>
-      <c r="H800" t="s">
-        <v>4</v>
-      </c>
-      <c r="I800" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="801" spans="1:9">
-      <c r="A801" s="1" t="n">
-        <v>799</v>
-      </c>
-      <c r="B801" t="s">
-        <v>0</v>
-      </c>
-      <c r="C801" t="s">
-        <v>1</v>
-      </c>
-      <c r="D801" t="n">
-        <v>800</v>
-      </c>
-      <c r="E801" t="s">
-        <v>1429</v>
-      </c>
-      <c r="F801" t="s">
-        <v>1430</v>
-      </c>
-      <c r="G801" t="n">
-        <v>1</v>
-      </c>
-      <c r="H801" t="s">
-        <v>4</v>
-      </c>
-      <c r="I801" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="802" spans="1:9">
-      <c r="A802" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B802" t="s">
-        <v>0</v>
-      </c>
-      <c r="C802" t="s">
-        <v>1</v>
-      </c>
-      <c r="D802" t="n">
-        <v>801</v>
-      </c>
-      <c r="E802" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F802" t="s">
-        <v>1432</v>
-      </c>
-      <c r="G802" t="n">
-        <v>1</v>
-      </c>
-      <c r="H802" t="s">
-        <v>4</v>
-      </c>
-      <c r="I802" t="n">
         <v>3</v>
       </c>
     </row>
